--- a/500all/speech_level/speeches_CHRG-114hhrg20915.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20915.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Bridenstine. The Subcommittee on Environment will come to order. Without objection, the Chair is authorized to declare recesses of the subcommittee at any time.    Welcome to today's hearing entitled ``Examining the Nation's Current and Next Generation Weather Satellite Programs.'' I recognize myself for five minutes for an opening statement.    I'd like to first thank our witnesses for being here today. This committee has a longstanding interest in the weather satellite programs of the National Oceanic and Atmospheric Administration, as evidenced by our continued oversight of these programs spanning multiple Congresses. I am also pleased to have the Department of Defense here today to discuss their weather satellite missions and the cooperation and coordination between the DOD and NOAA that result in expert forecasts that save lives and property.    After the National Polar-Orbiting Operational Environmental Satellite System, NPOESS, partnership failed to curb costs or yield benefits, the Administration directed NOAA and the DOD to develop individual polar-orbiting weather satellite programs. This has come to fruition with NOAA's Joint Polar Satellite System, JPSS, the first of which is slated to launch in March of 2017. Given that we are currently relying on the experimental-turned-operational Suomi NPP, it is my hope that this program suffers no further delays, and this launch date is met.    There has been improvement in the JPSS program over the past few years, but there are still potential causes of concern, which we will explore today. Meanwhile, the DOD began its own weather satellite program, the Defense Weather Satellite System, DWSS. However, this plan was scrapped in 2012, and the Department is now planning a new generation called the Weather System Follow-On, WSF.    In the meantime, the DOD currently relies on its existing satellite system, the Defense Meteorological Satellite Program, DMSP. These DOD satellites, much like NOAA's existing fleet, are ageing rapidly. One of them, DMSP-19, failed earlier this year, increasing the fragility of the system. The possibility of data gaps looms large as both agencies look to create a more robust satellite architecture.    Further complicating these issues is the reliance the agencies place on themselves and our international partners for critical weather data. For polar-orbiting satellite data, there are three primary orbits. The early-morning orbit is operated by the DOD, the mid-morning orbit by EUMETSAT's MetOp program, our partnering satellite agency in Europe, and the early-afternoon orbit by NOAA. Eighty percent of the data that goes into our numerical weather models comes from polar-orbiting satellites. Since we rely so heavily on these satellites, it is important for these orbits to continually be filled.    While these government satellites systems play an important role in providing data that predicts weather, I also want to highlight the growing role of the private sector. Let me be absolutely clear: I am not in any way suggesting the privatization of NOAA. Some people have suggested that, or the National Weather Service. However, the advancements of the commercial weather satellite industry have real potential to improve our forecasting capabilities, as well as provide gap mitigation in the event one of our satellites suffers a failure or further delays.    NOAA has released a Commercial Space Policy, a draft of its Commercial Space Activities Assessment process, and is currently operating a commercial weather data pilot program to test and validate private sector data for integration into its numerical weather models. I applaud NOAA's progress, and look forward to further action on this front. This Committee will remain vigilant in its oversight responsibilities to ensure that Americans have the best possible weather forecasts to save lives and property.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and thank you for your ongoing interest in the important issue of improving weather forecasting, and thank you to all of our witnesses for being here today.    The data collected by NOAA's weather satellites are the backbone of NOAA's weather prediction capabilities and support weather forecasting activities around the globe. NOAA, in coordination with its interagency and international partners, is working diligently to move the national weather satellite system into a robust state so we will have the certainty and continuity of accurate and reliable forecasts and severe storm warnings.    In addition to providing uninterrupted weather observations in the near term, NOAA is actively assessing what new capabilities will be required beyond the 2020s to protect American lives and property during extreme weather events. I am looking forward to hearing about both of these efforts.    As we've discussed in the past, however, both the geostationary and polar weather satellite programs--GOES and JPSS--have experienced schedule delays, significant cost growth, technical performance concerns, and management challenges. Although any and all remaining challenges must be addressed, I am pleased to note that NOAA has made significant progress, and we expect to soon be celebrating the successful launches of GOES-R and JPSS-1 satellites.    It is critical that these programs remain on schedule to minimize the potential risk to the collection of observations and data that are needed for NOAA's weather forecasting activities. Even the best-laid plans can be met with unanticipated events, a launch failure, or a potential satellite malfunction, for example. I will be listening for an update on the status of NOAA's contingency plans in the event that we do face a gap in data continuity, and I look forward to hearing about NOAA's efforts to put the weather satellite programs on a path to the robust state that the 2013 independent review team recommended.    In addition, the strength of our civil weather satellite system relies heavily on the interagency and international partnerships that NOAA has in place over decades. This morning's hearing provides the opportunity for us to learn more about NOAA's work with the Department of Defense and the communication among partners on future weather satellite planning efforts.    As we look ahead, NOAA's partnerships are expected to extend to commercial entities. NOAA is taking concrete steps toward implementing its commercial weather data pilot program in response to direction in the fiscal year 2016 Omnibus Appropriations Act. In fact, I understand that Dr. Volz will be attending an industry day workshop immediately following our hearing where he will receive feedback from companies interested in participating in the pilot program. I'm encouraged that NOAA has implemented the commercial weather data pilot program promptly and has provided an open dialogue throughout the process.    Finally, the planned launches of both GOES-R and JPSS-1 satellites should not mark the conclusion of NOAA's programmatic efforts but rather should be the figurative launching pad of the planning and development of our next generation of weather satellites. I look forward to hearing about both NOAA's polar follow-on program and its long-term architecture plans.    And before I yield back the balance of my time, I'm going to note, Mr. Chairman, I do need to run to a markup, and I'm going to do my best to get back as soon as possible. My colleague Mr. Grayson will take over until I can get back.    And I yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Mr. Chairman.    Let me welcome the witnesses, and I'm pleased to see that Dr. Volz and Dr. Powner are here again to provide updates on our nation's critical weather satellite development programs, JPSS and GOES-R. I am looking forward to hearing from both of you and Mr. Stoffler and Ms. Chaplain about the relationship between the Department of Defense and NOAA and how that partnership helps meet both civilian and defense needs.    I want to be clear that NOAA's weather satellite programs play a critical role in ensuring the continued health of our weather forecasting capabilities, and they support weather forecasting activities around the globe. Although both JPSS and GOES-R has experienced significant cost growth and management and technical challenges during this development, I am pleased to learn that NOAA has responded to recommendations from GAO and others and that we expect to have both satellites launched within the year.    However, as we will hear today, there is still more work to be done. Concerns about a potential gap in our satellite coverage must be addressed and NOAA must apply lessons learned to ensure future programs do not face identical challenges.    As I've said before, we must take all necessary steps to ensure that there is not a gap in satellite coverage in support of our weather forecasting capabilities. The successful launch of these satellites is critical to ensure our nation maintains its weather forecasting capabilities. However, it represents the first step, not the last in NOAA's ever-evolving efforts to protect American lives, property, and critical infrastructure.    I look forward to hearing more about NOAA's plans to maintain and improve the Nation's weather forecasting capabilities. I thank you, Mr. Chairman, for holding the hearing, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -88,27 +79,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Volz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Volz. Good morning, Chairman Bridenstine, Ranking Member Bonamici, who unfortunately had to depart, and Members of the Committee. I'm Dr. Stephen Volz, as indicated, Assistant Administrator for NOAA's Satellite, Environmental, Data, and Information Service called NESDIS.    The United States depends on NOAA to collect and provide the critical Earth observations and information needed for weather forecasts, for disaster preparedness, all-hazards response and recovery, for the protection of critical infrastructure and natural resources, and also for the continued economic vitality of the nation.    Currently, NOAA's observation portfolio is strong and will soon be even stronger. NOAA has launched, with support from our partners, international and interagency, two missions over the last 18 months, first, the space weather Deep Space Climate Observing--Observatory satellite or DSCOVR in February of 2015 and also the ocean-observing satellite Jason-3 just earlier this year.    Within the next year, NOAA plans to launch the next-generation geostationary and polar-orbiting environmental satellites GOES-R and JPSS-1 and the COSMIC-2A radio occultation constellation of satellites. These launches are only the beginning of a series of next-generation satellites soon to take flight.    But a significant portion of what NESDIS does is not just in space. All elements of the integrated observing system with satellites, ground operations, assured satellite communications, reliable data archives are essential for our continued mission success. Beginning with the launch of JPSS-1, NESDIS will bring online in stages, a new upgraded ground operating system with enhanced reliability security, and lower data latency. This ground system will operate, ingest, and process data, providing information to users around the globe.    Similarly, for GOES-R we're deploying six new ground antennae enhanced to handle the increased data rate expected from GOES-R while staying within the narrow accessible frequency range allowed for our satellite transmissions.    In fiscal year 2016, NOAA received funding from Congress to initiate the polar follow-on, the extension of the polar constellation. With this critical funding, the JPSS program now includes five polar-orbiting satellites, Suomi NPP, JPSS-1, 2, 3, and 4. This series of satellites supported by a NOAA industrial collaboration over the past years and into the future years is making excellent progress now on the Polar Follow-On, procuring the critical instrument long lead items so that we can ensure the delivery of these satellites on cost and on schedule.    Earth's weather systems are a global phenomenon, and NOAA's satellites are only one piece of a global observing constellation. We are able to accomplish what we do because our many productive and mutually beneficial scientific and operations partnerships built up over years of cooperation and formal agreements that are underpinned by a full, open, and timely data-sharing policy. These partnerships allow us to ensure the continued operation of the robust global constellation needed to meet the needs of our users and stakeholders.    In order to produce trusted, reliable data that our nation depends on every day, quality, validated observations are needed from multiple polar orbits, as Mr. Chairman Bridenstine mentioned. Continuing our partnerships now 30 years strong, NOAA and the European Organisation for the Exploitation of Meteorological Satellites, or EUMETSAT, have agreed to share the burden of the polar-orbiting satellite for the next 25 years. NOAA and EUMETSAT will continue splitting coverage for the two primary orbits, the midmorning and afternoon, and openly sharing data from our--with our respective missions.    Within the United States, interagency collaboration allows us to leverage the capabilities, the capacity, and the infrastructure of other U.S. agencies such as with NASA, which is NOAA's acquisition agent, and with the Department of Defense. The United States Air Force Defense Meteorological Satellite Program, or DMSP satellites, provide observations for the third early-morning orbit that is important for us. And NOAA operates the ground system development and oversees daily operations of the DMSP satellites out of our NOAA Satellite Ops Facility in Suitland, Maryland. These partnerships continue to provide excellent value for the U.S. Government as a whole.    Looking to the future, we are now preparing for the future observing system, evaluating changes in technology, emerging partnership opportunities, and national trends. Partnerships with the commercial sector and academic institutions can provide flexibility, including more innovative observing approaches, potentially enhancing our overall observing system reliability.    This year, through the Commercial Weather Data Pilot, NESDIS is working with the emerging commercial Earth observation community to explore the present capabilities to meet NOAA's observing requirements. Our comprehensive system study will consider all sources as we map out the observing system of the future. Our goal is to deploy an observing system within stable budget requirements but which is also agile and resilient and is responsive to the rapidly changing capabilities and technology of the future.    We appreciate Congress' strong support and we look forward to answering questions during the hearing today. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you for your testimony.    Mr. Powner, you're recognized for five minutes.</t>
   </si>
   <si>
-    <t>Powner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Powner. Chairman Bridenstine, Ranking Member Johnson, and Members of the Subcommittee, since my December testimony before this subcommittee, we have continued to review the JPSS program and NOAA's policies and procedures for determining the life span of existing and future satellites. Accurately depicting these life spans is important, given potential gaps in coverage and the timing of the out-year satellite acquisitions.    This morning, I will provide an update on the JPSS program, the latest of our estimate on the potential gap, a security assessment of the ground stations, and some observations about the Polar Follow-On program.    JPSS's launch date of March 2017 is on target according to NOAA despite the program missing interim milestones for the spacecraft, ATMS, and the ground segment. This is the case since the program had sufficient costs and schedule reserves built into it. This committee's persistent questioning of these reserves over the past several years demonstrates the important role your consistent oversight has played.    We still remain concerned about the launch date because the launch readiness date just slipped one month from December 2016 to January 2017. Two key areas to watch are the August ground station delivery and the upcoming thermal vac test, which is to start at the end of this month.    So with the March 2017 launch date and a three month checkout period, which is somewhat optimistic, JPSS-1 is expected to be the primary operational satellite in the early afternoon orbit around June 2017 or roughly a year from now.    I'd like to display a chart that I showed at the December hearing.    [Slide.]    At that hearing I testified and NOAA agreed that it was extending the NPP life span from October 2016 to 2020. That's the red arrow at the top of the chart. At that time, we questioned whether it should be extended the full four years given NOAA's assessment. Since then, we've learned that NOAA now labels this four-year extension as fuel-limited life, and it is not the expected life of the spacecraft and sensors. This is just another instance where NOAA's charts and satellite life spans have been misleading to the Congress.    Another key question is whether the ATMS instrument on NPP will last until J-1's ATMS becomes operational. We testified in December about the ATMS issues, and they continue.    Just recently, we made recommendations to NOAA to develop a policy for updating its fly-out charts to include having these life spans consistently and accurately reported based on detailed analyses. We believe this rigor in developing the fly-out charts is critical for NOAA to rebuild trust with both this committee and with the appropriation committees.    Mr. Chairman, I'd now like to turn to the ground station security findings and recommendations. This is an important area because NOAA has reported several incidents regarding access to its ground system, including hostile probes and unauthorized access. To its credit, NOAA has a systems security plan, has performed detailed penetration tests, and is working to address known vulnerabilities. However, NOAA has determined that the JPSS ground system is at high risk of compromise due to the significant number of controls that are not fully implemented.    [Slide.]    As this next chart displays, NOAA has been working on over 1,000 critical and high vulnerabilities on the current ground station and hundreds more have been identified from penetration tests on the ground upgrade. Just last night, NOAA provided an update on open vulnerabilities and they report decreasing roughly 1,500 open critical and high vulnerabilities down to about 1,200, a decrease of 300. Of concern are the critical vulnerabilities associated with the current operational ground station. These actually increased slightly. No one needs to close these vulnerabilities much quicker. Some areas to address these vulnerabilities include applying recommended patches and implementing stronger access controls.    Turning to the follow-on program, we are all for robust constellations and avoiding any potential gaps like the one we hope does not occur between NPP and J-1, but proposals to build J-3 and 4 to store nearly 3 and six years respectively need to be supported by cost-benefit analyses of different storage and launch scenarios. In addition, these continuity decisions need to be balanced with minimizing program costs.    In conclusion, NOAA has done a solid job coming out of the NPOESS debacle and being on the verge of the J-1 launch. Monitoring the remaining tests in the ground station delivery is important in these remaining months to see if the March 2017 launch date holds.    Regarding the gap between NPP and J-1, ATMS aware is the critical watch list item. NOAA also needs to more accurately inform Congress of satellite life spans and potential gaps in coverage, and finally, they need to better secure ground stations to avoid security incidents involving the loss of critical weather data.    This concludes my statement. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the gentleman.    Mr. Stoffler, you're recognized for five minutes for an opening statement.</t>
   </si>
   <si>
-    <t>Stoffler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stoffler. Chairman Bridenstine, Ranking Member Bonamici, and Members of the Subcommittee, thank you for the opportunity to appear before you----</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the gentleman for his testimony.    Ms. Chaplain, you're recognized for five minutes.</t>
   </si>
   <si>
-    <t>Chaplain</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chaplain. Chairman Bridenstine, Chairman Smith, Ranking Member Johnson, Ranking Member Bonamici, and Members of the Subcommittee, thank you for inviting me to discuss GAO's recent work on defense weather satellites, DOD's polar-orbiting weather satellites, known as DMSP, currently cross the equator in the early and midmorning orbits while NOAA satellites cross the equator in the afternoon orbit. DOD will not continue replacing satellites in the midmorning orbit as it was decided in the aftermath of the NPOESS program that the United States would rely on the Europeans for this orbit.    In addition, last year, DOD was directed not to launch the last DMSP satellite planned for the early-morning orbit in light of Congressional concerns with lack of planning, coordination, and execution of activities to continue meeting DOD's weather requirements. But because the 19th DMSP satellite in the early-morning orbit recently failed prematurely, DOD has put dismantling of its last satellite on hold.    DOD undertook an analysis of alternatives for future weather satellites from 2012 to 2014. We were mandated by the Congress to review this study. Undertaking the analysis was a good step. In the past, we have found satellite programs did not perform a rigorous analysis or conducted one with a solution already in mind.    In addition, DOD is considering significant changes to its future space architectures to increase resiliency and is operating under a constrained budgetary environment, which ultimately means DOD needs to find ways to reduce the cost of acquisition either by paring back its requirements or doing business differently. A thorough analysis of alternatives can help DOD navigate all these challenges.    Ideally, DOD would have conducted this analysis in the aftermath of the cancelation of NPOESS in 2010. By the time it started its analysis in 2012, it was already facing a gap for measuring ocean winds and more gaps were looming. The lag in planning for a new satellite system is not unique to weather. The GAO has been concerned about similar lags from its warning satellites and protected communication satellites. The longer it takes to assess and decide on what path to take the more DOD is at risk of facing critical gaps or having to continue buying legacy satellites.    We found DOD made an effort to plan for future weather satellites with a more cost-effective approach in mind, including consideration of which capabilities DOD needed to provide and which could be provided by leveraging other sources of data. The effort to rationalize requirements is also a positive step. Too often, past programs sought to answer to many requirements, all with the most advanced technologies. The technology and design problems encountered by NPOESS were partly due to problems with reigning in requirements.    We also found the analysis was useful for informing plans for new satellites that can measure ocean winds and tropical cyclone intensity and for a new space weather sensor that could be integrated on other satellites. However, we found the analysis was less useful for informing plans for DOD's two highest priority capabilities, cloud characterization and theater weather imagery data, now facing near-term gaps over the Indian Ocean. While DOD consulted with a wide range of stakeholders in conducting the analysis, it did not effectively collaborate with NOAA, which represents DOD's interests to international partners.    Specifically, NOAA was not involved in the reviews or the analysis or regular discussions with the study leadership team, the discussions were had with the technical consultant to NOAA. The lack of formal collaboration and coordination with NOAA contributed to an incorrect assumption about the continued availability of critical weather data from European satellites. As a result, the analysis did not fully assess solutions for these high-priority capabilities.    Because DOD did not thoroughly evaluate its top-two weather priorities during the analysis, DOD is now assessing how to fill these gaps leading to additional lags and planning. The failure of DMSP satellite and the termination of DMSP-20 have heightened the need to do so. It should also be noted that ineffective coordination has been a recurring problem in space notably with the NPOESS program but with other space programs as well.    In closing, we recognize that this type of analysis is extremely challenging to conduct, more so given the rigor and scope DOD applied to it. But in light of the importance of cloud characterization and theater weather imagery data to DOD's mission, it was incumbent on the Air Force to work more effectively with NOAA. Since our report, they have taken actions, and I can talk about those during the hearing.    This concludes my statement, and I'm happy to answer any questions you have.</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I appreciate the opportunity to be able to go out of turn for an opening statement. And I want to thank our witnesses for being here today.    The Science Committee has held many hearings on NOAA's troubled weather satellite programs over the years. These problems largely stem from the federal government's ill-fated consolidation of civilian and military weather and climate systems, which created slow, costly, and inefficient interagency programs to handle our weather prediction.    In 2010, when it became apparent that the National Polar-orbiting Environmental Satellite System was a failure, the Administration canceled it and left the agencies, namely NOAA and DOD, to create their own individual polar programs. In NOAA's case, they initiated the JPSS satellite, which unfortunately has continually encountered delays, cost overruns and mismanagement.    Over the last several years, NOAA's spending for satellite operations has ballooned to account for roughly 40 percent of its total budget, over $2 billion. This prevents NOAA from adequately pursuing other important areas of science, service, and stewardship.    NOAA now proposes to move forward with the next series of weather satellites using the same technology, the Polar Follow-On. So I am concerned that the same problems that have occurred over the last ten years will continue. This Committee needs assurance that NOAA will get its government satellite spending under control and be able to meet future forecasting needs. Congress should not continue to fund an over-budget program that has not performed up to its standards.    So what is NOAA doing differently with its next series of satellites that justifies such high continued funding? I fear the answer is nothing. I am also not convinced that NOAA is adequately mitigating the very real possibility of a gap in our weather data. In the face of real threats, NOAA should be doing all it can to prevent data gaps, yet they continue to drag their feet and not consider all options. The growing private sector weather enterprise could mitigate NOAA's shortcomings through new technologies and sources of data, but NOAA shows that it will only take action if forced to do so.    If NOAA is afraid of innovation, maybe they shouldn't be in the business of deciding what technologies are needed for improved forecasting. For instance, commercial satellites equipped with the latest technology could help prevent data gaps, provide new kinds of advanced data, improve current and future model forecasts, and do so on a much faster timeline at lower cost than large and slow government systems. So why isn't NOAA considering these?    NOAA should absolutely consider the help that the private sector can provide. In this case, commercial innovation beats the status quo of slow, costly government systems. Faster, better, and cheaper solutions take vision, competence, and courage. NOAA needs more of these qualities.    Mr. Chairman, I look forward to hearing from our witnesses today about how we can get our nation's future weather data back on track and on time to provide our citizens with the critical weather forecasts they need and deserve.    Let me also say, regrettably, I have another committee markup going on at the same time, so I'm going to be shuttling back and forth between the committees.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -181,9 +157,6 @@
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you. Mr. Stoffler, I want to congratulate you on your origins. As I frequently tell the Chair, not everybody can be so fortunate as to be from Oklahoma.</t>
   </si>
   <si>
@@ -283,9 +256,6 @@
     <t>412634</t>
   </si>
   <si>
-    <t>John R. Moolenaar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman. And I want to thank our witnesses today.    I want to begin with Mr. Stoffler. If you--just on--after canceling the Defense Weather Satellite System, the Department of Defense initiated an analysis of alternatives for space-based environmental monitoring, and it's my understanding that the conclusions of this analysis prioritized a number of mission-critical issues for Department of Defense to pursue, and I just wanted to get your perspective. Is Department of Defense pursuing all the mission areas as prioritized in this analysis of alternatives?</t>
   </si>
   <si>
@@ -329,9 +299,6 @@
   </si>
   <si>
     <t>412655</t>
-  </si>
-  <si>
-    <t>Brian Babin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Babin. Thank you, Mr. Chairman. And thank you, witnesses, for being here today.    Dr. Volz, it's my understanding that NOAA relies on data from the three distinct polar orbits, early morning, midmorning, and early afternoon, which are all being filled by different partners, NOAA, DOD, and the European satellite program, EUMETSAT. How important is each orbit?</t>
@@ -1018,11 +985,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1044,11 +1009,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1068,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1096,11 +1057,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1120,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1148,11 +1105,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1172,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1200,11 +1153,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1224,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1252,11 +1201,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1276,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1304,11 +1249,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1328,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1356,11 +1297,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1380,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1408,11 +1345,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1432,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1460,11 +1393,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1484,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1512,11 +1441,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1536,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1564,11 +1489,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1588,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1616,11 +1537,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1640,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1668,11 +1585,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1692,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1720,11 +1633,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1744,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1772,11 +1681,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1796,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1822,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1848,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1874,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1900,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1926,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1952,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1978,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2004,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
         <v>55</v>
-      </c>
-      <c r="H40" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2030,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2056,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2082,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2108,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2134,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2160,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2186,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2212,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2238,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2264,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2290,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2316,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2342,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2368,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
-      </c>
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2394,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2420,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2446,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2472,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2498,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2524,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2550,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2576,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2604,11 +2449,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2628,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2654,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2680,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2706,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2732,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2758,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2784,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2810,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2836,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2862,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2888,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2914,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2940,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2968,11 +2785,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2992,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3018,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3044,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3070,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3096,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3122,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3148,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
-      </c>
-      <c r="G84" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3174,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3200,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
-      </c>
-      <c r="G86" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3226,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3252,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>105</v>
-      </c>
-      <c r="H88" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3278,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3304,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
-      </c>
-      <c r="G90" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3330,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
-      </c>
-      <c r="G91" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3356,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3382,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3408,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3434,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3460,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3486,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3512,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3538,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3566,11 +3337,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3590,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3618,11 +3385,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3642,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3670,11 +3433,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3694,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3722,11 +3481,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3746,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3774,11 +3529,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3798,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3826,11 +3577,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3850,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3878,11 +3625,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3902,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
-      </c>
-      <c r="G113" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3928,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3954,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>54</v>
-      </c>
-      <c r="G115" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3980,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4006,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>54</v>
-      </c>
-      <c r="G117" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4032,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4058,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
-      </c>
-      <c r="G119" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4084,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4110,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>54</v>
-      </c>
-      <c r="G121" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4136,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4162,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
-      </c>
-      <c r="G123" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4188,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4214,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>54</v>
-      </c>
-      <c r="G125" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4242,11 +3961,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4266,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>104</v>
-      </c>
-      <c r="G127" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4292,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4318,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>104</v>
-      </c>
-      <c r="G129" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4344,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4370,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>104</v>
-      </c>
-      <c r="G131" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4396,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4422,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>104</v>
-      </c>
-      <c r="G133" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4448,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4474,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>104</v>
-      </c>
-      <c r="G135" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4500,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4526,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>104</v>
-      </c>
-      <c r="G137" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4554,11 +4249,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4578,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>104</v>
-      </c>
-      <c r="G139" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4606,11 +4297,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4630,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4658,11 +4345,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4682,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4710,11 +4393,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4734,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4762,11 +4441,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4786,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4814,11 +4489,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4838,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4866,11 +4537,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4890,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4918,11 +4585,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4942,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4970,11 +4633,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4994,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5022,11 +4681,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5046,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>54</v>
-      </c>
-      <c r="G157" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5072,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5098,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>54</v>
-      </c>
-      <c r="G159" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5124,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5150,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>54</v>
-      </c>
-      <c r="G161" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5176,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5202,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>54</v>
-      </c>
-      <c r="G163" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5228,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5254,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>54</v>
-      </c>
-      <c r="G165" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5282,11 +4921,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5306,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>104</v>
-      </c>
-      <c r="G167" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5332,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5358,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>104</v>
-      </c>
-      <c r="G169" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5384,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5410,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>104</v>
-      </c>
-      <c r="G171" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5436,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5462,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>104</v>
-      </c>
-      <c r="G173" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5490,11 +5113,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20915.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20915.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Bridenstine. The Subcommittee on Environment will come to order. Without objection, the Chair is authorized to declare recesses of the subcommittee at any time.    Welcome to today's hearing entitled ``Examining the Nation's Current and Next Generation Weather Satellite Programs.'' I recognize myself for five minutes for an opening statement.    I'd like to first thank our witnesses for being here today. This committee has a longstanding interest in the weather satellite programs of the National Oceanic and Atmospheric Administration, as evidenced by our continued oversight of these programs spanning multiple Congresses. I am also pleased to have the Department of Defense here today to discuss their weather satellite missions and the cooperation and coordination between the DOD and NOAA that result in expert forecasts that save lives and property.    After the National Polar-Orbiting Operational Environmental Satellite System, NPOESS, partnership failed to curb costs or yield benefits, the Administration directed NOAA and the DOD to develop individual polar-orbiting weather satellite programs. This has come to fruition with NOAA's Joint Polar Satellite System, JPSS, the first of which is slated to launch in March of 2017. Given that we are currently relying on the experimental-turned-operational Suomi NPP, it is my hope that this program suffers no further delays, and this launch date is met.    There has been improvement in the JPSS program over the past few years, but there are still potential causes of concern, which we will explore today. Meanwhile, the DOD began its own weather satellite program, the Defense Weather Satellite System, DWSS. However, this plan was scrapped in 2012, and the Department is now planning a new generation called the Weather System Follow-On, WSF.    In the meantime, the DOD currently relies on its existing satellite system, the Defense Meteorological Satellite Program, DMSP. These DOD satellites, much like NOAA's existing fleet, are ageing rapidly. One of them, DMSP-19, failed earlier this year, increasing the fragility of the system. The possibility of data gaps looms large as both agencies look to create a more robust satellite architecture.    Further complicating these issues is the reliance the agencies place on themselves and our international partners for critical weather data. For polar-orbiting satellite data, there are three primary orbits. The early-morning orbit is operated by the DOD, the mid-morning orbit by EUMETSAT's MetOp program, our partnering satellite agency in Europe, and the early-afternoon orbit by NOAA. Eighty percent of the data that goes into our numerical weather models comes from polar-orbiting satellites. Since we rely so heavily on these satellites, it is important for these orbits to continually be filled.    While these government satellites systems play an important role in providing data that predicts weather, I also want to highlight the growing role of the private sector. Let me be absolutely clear: I am not in any way suggesting the privatization of NOAA. Some people have suggested that, or the National Weather Service. However, the advancements of the commercial weather satellite industry have real potential to improve our forecasting capabilities, as well as provide gap mitigation in the event one of our satellites suffers a failure or further delays.    NOAA has released a Commercial Space Policy, a draft of its Commercial Space Activities Assessment process, and is currently operating a commercial weather data pilot program to test and validate private sector data for integration into its numerical weather models. I applaud NOAA's progress, and look forward to further action on this front. This Committee will remain vigilant in its oversight responsibilities to ensure that Americans have the best possible weather forecasts to save lives and property.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and thank you for your ongoing interest in the important issue of improving weather forecasting, and thank you to all of our witnesses for being here today.    The data collected by NOAA's weather satellites are the backbone of NOAA's weather prediction capabilities and support weather forecasting activities around the globe. NOAA, in coordination with its interagency and international partners, is working diligently to move the national weather satellite system into a robust state so we will have the certainty and continuity of accurate and reliable forecasts and severe storm warnings.    In addition to providing uninterrupted weather observations in the near term, NOAA is actively assessing what new capabilities will be required beyond the 2020s to protect American lives and property during extreme weather events. I am looking forward to hearing about both of these efforts.    As we've discussed in the past, however, both the geostationary and polar weather satellite programs--GOES and JPSS--have experienced schedule delays, significant cost growth, technical performance concerns, and management challenges. Although any and all remaining challenges must be addressed, I am pleased to note that NOAA has made significant progress, and we expect to soon be celebrating the successful launches of GOES-R and JPSS-1 satellites.    It is critical that these programs remain on schedule to minimize the potential risk to the collection of observations and data that are needed for NOAA's weather forecasting activities. Even the best-laid plans can be met with unanticipated events, a launch failure, or a potential satellite malfunction, for example. I will be listening for an update on the status of NOAA's contingency plans in the event that we do face a gap in data continuity, and I look forward to hearing about NOAA's efforts to put the weather satellite programs on a path to the robust state that the 2013 independent review team recommended.    In addition, the strength of our civil weather satellite system relies heavily on the interagency and international partnerships that NOAA has in place over decades. This morning's hearing provides the opportunity for us to learn more about NOAA's work with the Department of Defense and the communication among partners on future weather satellite planning efforts.    As we look ahead, NOAA's partnerships are expected to extend to commercial entities. NOAA is taking concrete steps toward implementing its commercial weather data pilot program in response to direction in the fiscal year 2016 Omnibus Appropriations Act. In fact, I understand that Dr. Volz will be attending an industry day workshop immediately following our hearing where he will receive feedback from companies interested in participating in the pilot program. I'm encouraged that NOAA has implemented the commercial weather data pilot program promptly and has provided an open dialogue throughout the process.    Finally, the planned launches of both GOES-R and JPSS-1 satellites should not mark the conclusion of NOAA's programmatic efforts but rather should be the figurative launching pad of the planning and development of our next generation of weather satellites. I look forward to hearing about both NOAA's polar follow-on program and its long-term architecture plans.    And before I yield back the balance of my time, I'm going to note, Mr. Chairman, I do need to run to a markup, and I'm going to do my best to get back as soon as possible. My colleague Mr. Grayson will take over until I can get back.    And I yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412460</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Mr. Chairman.    Let me welcome the witnesses, and I'm pleased to see that Dr. Volz and Dr. Powner are here again to provide updates on our nation's critical weather satellite development programs, JPSS and GOES-R. I am looking forward to hearing from both of you and Mr. Stoffler and Ms. Chaplain about the relationship between the Department of Defense and NOAA and how that partnership helps meet both civilian and defense needs.    I want to be clear that NOAA's weather satellite programs play a critical role in ensuring the continued health of our weather forecasting capabilities, and they support weather forecasting activities around the globe. Although both JPSS and GOES-R has experienced significant cost growth and management and technical challenges during this development, I am pleased to learn that NOAA has responded to recommendations from GAO and others and that we expect to have both satellites launched within the year.    However, as we will hear today, there is still more work to be done. Concerns about a potential gap in our satellite coverage must be addressed and NOAA must apply lessons learned to ensure future programs do not face identical challenges.    As I've said before, we must take all necessary steps to ensure that there is not a gap in satellite coverage in support of our weather forecasting capabilities. The successful launch of these satellites is critical to ensure our nation maintains its weather forecasting capabilities. However, it represents the first step, not the last in NOAA's ever-evolving efforts to protect American lives, property, and critical infrastructure.    I look forward to hearing more about NOAA's plans to maintain and improve the Nation's weather forecasting capabilities. I thank you, Mr. Chairman, for holding the hearing, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -79,18 +100,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Volz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Volz. Good morning, Chairman Bridenstine, Ranking Member Bonamici, who unfortunately had to depart, and Members of the Committee. I'm Dr. Stephen Volz, as indicated, Assistant Administrator for NOAA's Satellite, Environmental, Data, and Information Service called NESDIS.    The United States depends on NOAA to collect and provide the critical Earth observations and information needed for weather forecasts, for disaster preparedness, all-hazards response and recovery, for the protection of critical infrastructure and natural resources, and also for the continued economic vitality of the nation.    Currently, NOAA's observation portfolio is strong and will soon be even stronger. NOAA has launched, with support from our partners, international and interagency, two missions over the last 18 months, first, the space weather Deep Space Climate Observing--Observatory satellite or DSCOVR in February of 2015 and also the ocean-observing satellite Jason-3 just earlier this year.    Within the next year, NOAA plans to launch the next-generation geostationary and polar-orbiting environmental satellites GOES-R and JPSS-1 and the COSMIC-2A radio occultation constellation of satellites. These launches are only the beginning of a series of next-generation satellites soon to take flight.    But a significant portion of what NESDIS does is not just in space. All elements of the integrated observing system with satellites, ground operations, assured satellite communications, reliable data archives are essential for our continued mission success. Beginning with the launch of JPSS-1, NESDIS will bring online in stages, a new upgraded ground operating system with enhanced reliability security, and lower data latency. This ground system will operate, ingest, and process data, providing information to users around the globe.    Similarly, for GOES-R we're deploying six new ground antennae enhanced to handle the increased data rate expected from GOES-R while staying within the narrow accessible frequency range allowed for our satellite transmissions.    In fiscal year 2016, NOAA received funding from Congress to initiate the polar follow-on, the extension of the polar constellation. With this critical funding, the JPSS program now includes five polar-orbiting satellites, Suomi NPP, JPSS-1, 2, 3, and 4. This series of satellites supported by a NOAA industrial collaboration over the past years and into the future years is making excellent progress now on the Polar Follow-On, procuring the critical instrument long lead items so that we can ensure the delivery of these satellites on cost and on schedule.    Earth's weather systems are a global phenomenon, and NOAA's satellites are only one piece of a global observing constellation. We are able to accomplish what we do because our many productive and mutually beneficial scientific and operations partnerships built up over years of cooperation and formal agreements that are underpinned by a full, open, and timely data-sharing policy. These partnerships allow us to ensure the continued operation of the robust global constellation needed to meet the needs of our users and stakeholders.    In order to produce trusted, reliable data that our nation depends on every day, quality, validated observations are needed from multiple polar orbits, as Mr. Chairman Bridenstine mentioned. Continuing our partnerships now 30 years strong, NOAA and the European Organisation for the Exploitation of Meteorological Satellites, or EUMETSAT, have agreed to share the burden of the polar-orbiting satellite for the next 25 years. NOAA and EUMETSAT will continue splitting coverage for the two primary orbits, the midmorning and afternoon, and openly sharing data from our--with our respective missions.    Within the United States, interagency collaboration allows us to leverage the capabilities, the capacity, and the infrastructure of other U.S. agencies such as with NASA, which is NOAA's acquisition agent, and with the Department of Defense. The United States Air Force Defense Meteorological Satellite Program, or DMSP satellites, provide observations for the third early-morning orbit that is important for us. And NOAA operates the ground system development and oversees daily operations of the DMSP satellites out of our NOAA Satellite Ops Facility in Suitland, Maryland. These partnerships continue to provide excellent value for the U.S. Government as a whole.    Looking to the future, we are now preparing for the future observing system, evaluating changes in technology, emerging partnership opportunities, and national trends. Partnerships with the commercial sector and academic institutions can provide flexibility, including more innovative observing approaches, potentially enhancing our overall observing system reliability.    This year, through the Commercial Weather Data Pilot, NESDIS is working with the emerging commercial Earth observation community to explore the present capabilities to meet NOAA's observing requirements. Our comprehensive system study will consider all sources as we map out the observing system of the future. Our goal is to deploy an observing system within stable budget requirements but which is also agile and resilient and is responsive to the rapidly changing capabilities and technology of the future.    We appreciate Congress' strong support and we look forward to answering questions during the hearing today. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you for your testimony.    Mr. Powner, you're recognized for five minutes.</t>
   </si>
   <si>
+    <t>Powner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Powner. Chairman Bridenstine, Ranking Member Johnson, and Members of the Subcommittee, since my December testimony before this subcommittee, we have continued to review the JPSS program and NOAA's policies and procedures for determining the life span of existing and future satellites. Accurately depicting these life spans is important, given potential gaps in coverage and the timing of the out-year satellite acquisitions.    This morning, I will provide an update on the JPSS program, the latest of our estimate on the potential gap, a security assessment of the ground stations, and some observations about the Polar Follow-On program.    JPSS's launch date of March 2017 is on target according to NOAA despite the program missing interim milestones for the spacecraft, ATMS, and the ground segment. This is the case since the program had sufficient costs and schedule reserves built into it. This committee's persistent questioning of these reserves over the past several years demonstrates the important role your consistent oversight has played.    We still remain concerned about the launch date because the launch readiness date just slipped one month from December 2016 to January 2017. Two key areas to watch are the August ground station delivery and the upcoming thermal vac test, which is to start at the end of this month.    So with the March 2017 launch date and a three month checkout period, which is somewhat optimistic, JPSS-1 is expected to be the primary operational satellite in the early afternoon orbit around June 2017 or roughly a year from now.    I'd like to display a chart that I showed at the December hearing.    [Slide.]    At that hearing I testified and NOAA agreed that it was extending the NPP life span from October 2016 to 2020. That's the red arrow at the top of the chart. At that time, we questioned whether it should be extended the full four years given NOAA's assessment. Since then, we've learned that NOAA now labels this four-year extension as fuel-limited life, and it is not the expected life of the spacecraft and sensors. This is just another instance where NOAA's charts and satellite life spans have been misleading to the Congress.    Another key question is whether the ATMS instrument on NPP will last until J-1's ATMS becomes operational. We testified in December about the ATMS issues, and they continue.    Just recently, we made recommendations to NOAA to develop a policy for updating its fly-out charts to include having these life spans consistently and accurately reported based on detailed analyses. We believe this rigor in developing the fly-out charts is critical for NOAA to rebuild trust with both this committee and with the appropriation committees.    Mr. Chairman, I'd now like to turn to the ground station security findings and recommendations. This is an important area because NOAA has reported several incidents regarding access to its ground system, including hostile probes and unauthorized access. To its credit, NOAA has a systems security plan, has performed detailed penetration tests, and is working to address known vulnerabilities. However, NOAA has determined that the JPSS ground system is at high risk of compromise due to the significant number of controls that are not fully implemented.    [Slide.]    As this next chart displays, NOAA has been working on over 1,000 critical and high vulnerabilities on the current ground station and hundreds more have been identified from penetration tests on the ground upgrade. Just last night, NOAA provided an update on open vulnerabilities and they report decreasing roughly 1,500 open critical and high vulnerabilities down to about 1,200, a decrease of 300. Of concern are the critical vulnerabilities associated with the current operational ground station. These actually increased slightly. No one needs to close these vulnerabilities much quicker. Some areas to address these vulnerabilities include applying recommended patches and implementing stronger access controls.    Turning to the follow-on program, we are all for robust constellations and avoiding any potential gaps like the one we hope does not occur between NPP and J-1, but proposals to build J-3 and 4 to store nearly 3 and six years respectively need to be supported by cost-benefit analyses of different storage and launch scenarios. In addition, these continuity decisions need to be balanced with minimizing program costs.    In conclusion, NOAA has done a solid job coming out of the NPOESS debacle and being on the verge of the J-1 launch. Monitoring the remaining tests in the ground station delivery is important in these remaining months to see if the March 2017 launch date holds.    Regarding the gap between NPP and J-1, ATMS aware is the critical watch list item. NOAA also needs to more accurately inform Congress of satellite life spans and potential gaps in coverage, and finally, they need to better secure ground stations to avoid security incidents involving the loss of critical weather data.    This concludes my statement. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the gentleman.    Mr. Stoffler, you're recognized for five minutes for an opening statement.</t>
   </si>
   <si>
+    <t>Stoffler</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stoffler. Chairman Bridenstine, Ranking Member Bonamici, and Members of the Subcommittee, thank you for the opportunity to appear before you----</t>
   </si>
   <si>
@@ -103,6 +133,9 @@
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the gentleman for his testimony.    Ms. Chaplain, you're recognized for five minutes.</t>
   </si>
   <si>
+    <t>Chaplain</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Chaplain. Chairman Bridenstine, Chairman Smith, Ranking Member Johnson, Ranking Member Bonamici, and Members of the Subcommittee, thank you for inviting me to discuss GAO's recent work on defense weather satellites, DOD's polar-orbiting weather satellites, known as DMSP, currently cross the equator in the early and midmorning orbits while NOAA satellites cross the equator in the afternoon orbit. DOD will not continue replacing satellites in the midmorning orbit as it was decided in the aftermath of the NPOESS program that the United States would rely on the Europeans for this orbit.    In addition, last year, DOD was directed not to launch the last DMSP satellite planned for the early-morning orbit in light of Congressional concerns with lack of planning, coordination, and execution of activities to continue meeting DOD's weather requirements. But because the 19th DMSP satellite in the early-morning orbit recently failed prematurely, DOD has put dismantling of its last satellite on hold.    DOD undertook an analysis of alternatives for future weather satellites from 2012 to 2014. We were mandated by the Congress to review this study. Undertaking the analysis was a good step. In the past, we have found satellite programs did not perform a rigorous analysis or conducted one with a solution already in mind.    In addition, DOD is considering significant changes to its future space architectures to increase resiliency and is operating under a constrained budgetary environment, which ultimately means DOD needs to find ways to reduce the cost of acquisition either by paring back its requirements or doing business differently. A thorough analysis of alternatives can help DOD navigate all these challenges.    Ideally, DOD would have conducted this analysis in the aftermath of the cancelation of NPOESS in 2010. By the time it started its analysis in 2012, it was already facing a gap for measuring ocean winds and more gaps were looming. The lag in planning for a new satellite system is not unique to weather. The GAO has been concerned about similar lags from its warning satellites and protected communication satellites. The longer it takes to assess and decide on what path to take the more DOD is at risk of facing critical gaps or having to continue buying legacy satellites.    We found DOD made an effort to plan for future weather satellites with a more cost-effective approach in mind, including consideration of which capabilities DOD needed to provide and which could be provided by leveraging other sources of data. The effort to rationalize requirements is also a positive step. Too often, past programs sought to answer to many requirements, all with the most advanced technologies. The technology and design problems encountered by NPOESS were partly due to problems with reigning in requirements.    We also found the analysis was useful for informing plans for new satellites that can measure ocean winds and tropical cyclone intensity and for a new space weather sensor that could be integrated on other satellites. However, we found the analysis was less useful for informing plans for DOD's two highest priority capabilities, cloud characterization and theater weather imagery data, now facing near-term gaps over the Indian Ocean. While DOD consulted with a wide range of stakeholders in conducting the analysis, it did not effectively collaborate with NOAA, which represents DOD's interests to international partners.    Specifically, NOAA was not involved in the reviews or the analysis or regular discussions with the study leadership team, the discussions were had with the technical consultant to NOAA. The lack of formal collaboration and coordination with NOAA contributed to an incorrect assumption about the continued availability of critical weather data from European satellites. As a result, the analysis did not fully assess solutions for these high-priority capabilities.    Because DOD did not thoroughly evaluate its top-two weather priorities during the analysis, DOD is now assessing how to fill these gaps leading to additional lags and planning. The failure of DMSP satellite and the termination of DMSP-20 have heightened the need to do so. It should also be noted that ineffective coordination has been a recurring problem in space notably with the NPOESS program but with other space programs as well.    In closing, we recognize that this type of analysis is extremely challenging to conduct, more so given the rigor and scope DOD applied to it. But in light of the importance of cloud characterization and theater weather imagery data to DOD's mission, it was incumbent on the Air Force to work more effectively with NOAA. Since our report, they have taken actions, and I can talk about those during the hearing.    This concludes my statement, and I'm happy to answer any questions you have.</t>
   </si>
   <si>
@@ -112,6 +145,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I appreciate the opportunity to be able to go out of turn for an opening statement. And I want to thank our witnesses for being here today.    The Science Committee has held many hearings on NOAA's troubled weather satellite programs over the years. These problems largely stem from the federal government's ill-fated consolidation of civilian and military weather and climate systems, which created slow, costly, and inefficient interagency programs to handle our weather prediction.    In 2010, when it became apparent that the National Polar-orbiting Environmental Satellite System was a failure, the Administration canceled it and left the agencies, namely NOAA and DOD, to create their own individual polar programs. In NOAA's case, they initiated the JPSS satellite, which unfortunately has continually encountered delays, cost overruns and mismanagement.    Over the last several years, NOAA's spending for satellite operations has ballooned to account for roughly 40 percent of its total budget, over $2 billion. This prevents NOAA from adequately pursuing other important areas of science, service, and stewardship.    NOAA now proposes to move forward with the next series of weather satellites using the same technology, the Polar Follow-On. So I am concerned that the same problems that have occurred over the last ten years will continue. This Committee needs assurance that NOAA will get its government satellite spending under control and be able to meet future forecasting needs. Congress should not continue to fund an over-budget program that has not performed up to its standards.    So what is NOAA doing differently with its next series of satellites that justifies such high continued funding? I fear the answer is nothing. I am also not convinced that NOAA is adequately mitigating the very real possibility of a gap in our weather data. In the face of real threats, NOAA should be doing all it can to prevent data gaps, yet they continue to drag their feet and not consider all options. The growing private sector weather enterprise could mitigate NOAA's shortcomings through new technologies and sources of data, but NOAA shows that it will only take action if forced to do so.    If NOAA is afraid of innovation, maybe they shouldn't be in the business of deciding what technologies are needed for improved forecasting. For instance, commercial satellites equipped with the latest technology could help prevent data gaps, provide new kinds of advanced data, improve current and future model forecasts, and do so on a much faster timeline at lower cost than large and slow government systems. So why isn't NOAA considering these?    NOAA should absolutely consider the help that the private sector can provide. In this case, commercial innovation beats the status quo of slow, costly government systems. Faster, better, and cheaper solutions take vision, competence, and courage. NOAA needs more of these qualities.    Mr. Chairman, I look forward to hearing from our witnesses today about how we can get our nation's future weather data back on track and on time to provide our citizens with the critical weather forecasts they need and deserve.    Let me also say, regrettably, I have another committee markup going on at the same time, so I'm going to be shuttling back and forth between the committees.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -157,6 +196,12 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you. Mr. Stoffler, I want to congratulate you on your origins. As I frequently tell the Chair, not everybody can be so fortunate as to be from Oklahoma.</t>
   </si>
   <si>
@@ -256,6 +301,12 @@
     <t>412634</t>
   </si>
   <si>
+    <t>Moolenaar</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman. And I want to thank our witnesses today.    I want to begin with Mr. Stoffler. If you--just on--after canceling the Defense Weather Satellite System, the Department of Defense initiated an analysis of alternatives for space-based environmental monitoring, and it's my understanding that the conclusions of this analysis prioritized a number of mission-critical issues for Department of Defense to pursue, and I just wanted to get your perspective. Is Department of Defense pursuing all the mission areas as prioritized in this analysis of alternatives?</t>
   </si>
   <si>
@@ -299,6 +350,12 @@
   </si>
   <si>
     <t>412655</t>
+  </si>
+  <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Babin. Thank you, Mr. Chairman. And thank you, witnesses, for being here today.    Dr. Volz, it's my understanding that NOAA relies on data from the three distinct polar orbits, early morning, midmorning, and early afternoon, which are all being filled by different partners, NOAA, DOD, and the European satellite program, EUMETSAT. How important is each orbit?</t>
@@ -935,7 +992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,7 +1000,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,4157 +1022,4877 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G56" t="s">
+        <v>60</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>60</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G62" t="s">
+        <v>60</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G64" t="s">
+        <v>95</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G66" t="s">
+        <v>95</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G68" t="s">
+        <v>95</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>95</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>95</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G76" t="s">
+        <v>95</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G78" t="s">
+        <v>112</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G80" t="s">
+        <v>112</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G82" t="s">
+        <v>112</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G84" t="s">
+        <v>112</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G86" t="s">
+        <v>112</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G88" t="s">
+        <v>112</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G90" t="s">
+        <v>112</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>94</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G93" t="s">
+        <v>112</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>94</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s">
+        <v>112</v>
+      </c>
       <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>94</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G97" t="s">
+        <v>112</v>
+      </c>
       <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>94</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s">
+        <v>112</v>
+      </c>
       <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G101" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G113" t="s">
+        <v>60</v>
+      </c>
       <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G115" t="s">
+        <v>60</v>
+      </c>
       <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G117" t="s">
+        <v>60</v>
+      </c>
       <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G119" t="s">
+        <v>60</v>
+      </c>
       <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G121" t="s">
+        <v>60</v>
+      </c>
       <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G123" t="s">
+        <v>60</v>
+      </c>
       <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G125" t="s">
+        <v>60</v>
+      </c>
       <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>94</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G127" t="s">
+        <v>112</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>94</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G129" t="s">
+        <v>112</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>94</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G131" t="s">
+        <v>112</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>94</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G133" t="s">
+        <v>112</v>
+      </c>
       <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>94</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G135" t="s">
+        <v>112</v>
+      </c>
       <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>94</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G137" t="s">
+        <v>112</v>
+      </c>
       <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>94</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G139" t="s">
+        <v>112</v>
+      </c>
       <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G141" t="s">
+        <v>34</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G145" t="s">
+        <v>34</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G153" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G155" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G157" t="s">
+        <v>60</v>
+      </c>
       <c r="H157" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I157" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G159" t="s">
+        <v>60</v>
+      </c>
       <c r="H159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I159" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>28</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G161" t="s">
+        <v>60</v>
+      </c>
       <c r="H161" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>28</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G163" t="s">
+        <v>60</v>
+      </c>
       <c r="H163" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G164" t="s">
+        <v>28</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G165" t="s">
+        <v>60</v>
+      </c>
       <c r="H165" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I165" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>94</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G167" t="s">
+        <v>112</v>
+      </c>
       <c r="H167" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I167" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G168" t="s">
+        <v>31</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>94</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G169" t="s">
+        <v>112</v>
+      </c>
       <c r="H169" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I169" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G170" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>94</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G171" t="s">
+        <v>112</v>
+      </c>
       <c r="H171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I171" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G172" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>94</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G173" t="s">
+        <v>112</v>
+      </c>
       <c r="H173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>190</v>
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20915.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20915.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Bridenstine</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Bonamici</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>412460</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -143,6 +155,9 @@
   </si>
   <si>
     <t>400381</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Smith</t>
@@ -992,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,7 +1015,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,4874 +1040,5248 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G58" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G62" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I68" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" t="s">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G76" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G78" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G80" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G82" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H82" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I82" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G84" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G88" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G90" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G93" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G95" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>39</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>43</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G97" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G99" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I99" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>32</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>32</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" t="s">
-        <v>34</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" t="s">
-        <v>34</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>38</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" t="s">
-        <v>34</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G113" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H113" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>32</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G115" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H115" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>32</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G117" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H117" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G119" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H119" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G121" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H121" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>32</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G123" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H123" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>32</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G125" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H125" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G127" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H127" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I127" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G129" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H129" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s">
-        <v>34</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G131" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H131" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I131" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G133" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H133" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I133" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G135" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H135" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I135" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>28</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>32</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G137" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H137" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I137" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G139" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H139" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I139" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
-      </c>
-      <c r="G141" t="s">
-        <v>34</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>38</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>27</v>
-      </c>
-      <c r="G143" t="s">
-        <v>34</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>38</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>27</v>
-      </c>
-      <c r="G145" t="s">
-        <v>34</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>38</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>27</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>38</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>27</v>
-      </c>
-      <c r="G149" t="s">
-        <v>28</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>32</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>32</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>27</v>
-      </c>
-      <c r="G153" t="s">
-        <v>28</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>32</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>27</v>
-      </c>
-      <c r="G155" t="s">
-        <v>28</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>32</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G157" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I157" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>27</v>
-      </c>
-      <c r="G158" t="s">
-        <v>28</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>32</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G159" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H159" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I159" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>27</v>
-      </c>
-      <c r="G160" t="s">
-        <v>28</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>32</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G161" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H161" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I161" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>27</v>
-      </c>
-      <c r="G162" t="s">
-        <v>28</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>32</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G163" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H163" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I163" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J163" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" t="s">
-        <v>28</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>32</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G165" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H165" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I165" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J165" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G167" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H167" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I167" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J167" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>27</v>
-      </c>
-      <c r="G168" t="s">
-        <v>31</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>35</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G169" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H169" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I169" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J169" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>27</v>
-      </c>
-      <c r="G170" t="s">
-        <v>31</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>35</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G171" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H171" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I171" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>27</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>35</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G173" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H173" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I173" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>209</v>
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
